--- a/라바다 애니리스트.xlsx
+++ b/라바다 애니리스트.xlsx
@@ -24,45 +24,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Bombing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpearThrow_Begin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpearThrow_During</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepFront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>ShockWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bombing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpearThrow_Begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepFront</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JumpSmash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpearThrow_During</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TripleAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -406,56 +402,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/라바다 애니리스트.xlsx
+++ b/라바다 애니리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bombing</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>StepFront</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -422,26 +418,21 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
